--- a/API/Resources/Template/SortDetailReport.xlsx
+++ b/API/Resources/Template/SortDetailReport.xlsx
@@ -307,6 +307,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyymmddhhmmssAM/PM"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -385,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -398,6 +401,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -681,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -741,7 +747,7 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="5"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
